--- a/input/dv.xlsx
+++ b/input/dv.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\wbe\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -202,6 +207,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -462,7 +470,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -472,22 +480,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:B174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <v>99999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -495,7 +503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>20040101</v>
       </c>
@@ -503,7 +511,7 @@
         <v>5.563540898766286</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>20040201</v>
       </c>
@@ -511,7 +519,7 @@
         <v>5.374963949521506</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>20040301</v>
       </c>
@@ -519,23 +527,19 @@
         <v>5.4188442589139143</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>20040401</v>
       </c>
-      <c r="B9" s="8">
-        <v>5.4860182891732503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>20040501</v>
       </c>
-      <c r="B10" s="8">
-        <v>5.3411962359652048</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>20040601</v>
       </c>
@@ -543,7 +547,7 @@
         <v>4.3639218693919108</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>20040701</v>
       </c>
@@ -551,7 +555,7 @@
         <v>3.2599001116585136</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>20040801</v>
       </c>
@@ -559,7 +563,7 @@
         <v>2.8068287186203409</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>20040901</v>
       </c>
@@ -567,7 +571,7 @@
         <v>2.7219111659208508</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>20041001</v>
       </c>
@@ -575,7 +579,7 @@
         <v>2.5161035863673207</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>20041101</v>
       </c>
@@ -583,7 +587,7 @@
         <v>2.3747585626249963</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>20041201</v>
       </c>
@@ -591,7 +595,7 @@
         <v>2.7614586622180859</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>20050101</v>
       </c>
@@ -599,7 +603,7 @@
         <v>2.575036418269721</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>20050201</v>
       </c>
@@ -607,7 +611,7 @@
         <v>2.3082773740009013</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>20050301</v>
       </c>
@@ -615,7 +619,7 @@
         <v>2.0673982934107173</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20050401</v>
       </c>
@@ -623,7 +627,7 @@
         <v>1.705751111111111</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>20050501</v>
       </c>
@@ -631,7 +635,7 @@
         <v>2.1001777777777777</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>20050601</v>
       </c>
@@ -639,7 +643,7 @@
         <v>1.4901222222222223</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>20050701</v>
       </c>
@@ -647,7 +651,7 @@
         <v>1.3275455555555555</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>20050801</v>
       </c>
@@ -655,7 +659,7 @@
         <v>1.7210766666666666</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>20050901</v>
       </c>
@@ -663,7 +667,7 @@
         <v>1.0506988888888888</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>20051001</v>
       </c>
@@ -671,7 +675,7 @@
         <v>1.28986</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>20051101</v>
       </c>
@@ -679,7 +683,7 @@
         <v>1.2384577777777777</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>20051201</v>
       </c>
@@ -687,7 +691,7 @@
         <v>1.3547744444444443</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>20060101</v>
       </c>
@@ -695,7 +699,7 @@
         <v>1.7813422222222226</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>20060201</v>
       </c>
@@ -703,7 +707,7 @@
         <v>1.7175588888888889</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>20060301</v>
       </c>
@@ -711,7 +715,7 @@
         <v>2.1403722222222221</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>20060401</v>
       </c>
@@ -719,7 +723,7 @@
         <v>2.4960266666666668</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>20060501</v>
       </c>
@@ -727,7 +731,7 @@
         <v>3.3999299999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>20060601</v>
       </c>
@@ -735,7 +739,7 @@
         <v>3.6898755555555556</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>20060701</v>
       </c>
@@ -743,7 +747,7 @@
         <v>3.4855355555555554</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>20060801</v>
       </c>
@@ -751,7 +755,7 @@
         <v>3.2862822222222223</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>20060901</v>
       </c>
@@ -759,7 +763,7 @@
         <v>3.7232966666666676</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>20061001</v>
       </c>
@@ -767,7 +771,7 @@
         <v>3.4357133333333336</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>20061101</v>
       </c>
@@ -775,7 +779,7 @@
         <v>2.5617611111111116</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>20061201</v>
       </c>
@@ -783,7 +787,7 @@
         <v>3.4953455555555553</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>20070101</v>
       </c>
@@ -791,7 +795,7 @@
         <v>2.8280466666666664</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>20070201</v>
       </c>
@@ -799,7 +803,7 @@
         <v>3.0809222222222221</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>20070301</v>
       </c>
@@ -807,7 +811,7 @@
         <v>2.8257911111111107</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>20070401</v>
       </c>
@@ -815,7 +819,7 @@
         <v>1.4029811111111112</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>20070501</v>
       </c>
@@ -823,7 +827,7 @@
         <v>1.2994811111111109</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>20070601</v>
       </c>
@@ -831,7 +835,7 @@
         <v>1.4424022222222221</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>20070701</v>
       </c>
@@ -839,7 +843,7 @@
         <v>0.77171444444444448</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>20070801</v>
       </c>
@@ -847,7 +851,7 @@
         <v>1.1455855555555554</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>20070901</v>
       </c>
@@ -855,7 +859,7 @@
         <v>1.5141144444444443</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>20071001</v>
       </c>
@@ -863,7 +867,7 @@
         <v>1.6201333333333332</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>20071101</v>
       </c>
@@ -871,7 +875,7 @@
         <v>1.8072577777777776</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>20071201</v>
       </c>
@@ -879,7 +883,7 @@
         <v>1.9813800000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>20080101</v>
       </c>
@@ -887,7 +891,7 @@
         <v>3.0695520000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>20080201</v>
       </c>
@@ -895,7 +899,7 @@
         <v>2.0598190000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>20080301</v>
       </c>
@@ -903,7 +907,7 @@
         <v>1.8534181818181816</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>20080401</v>
       </c>
@@ -911,7 +915,7 @@
         <v>1.5999600000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>20080501</v>
       </c>
@@ -919,7 +923,7 @@
         <v>1.8450454545454547</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>20080601</v>
       </c>
@@ -927,7 +931,7 @@
         <v>2.8944327272727275</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>20080701</v>
       </c>
@@ -935,7 +939,7 @@
         <v>3.2313518181818184</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>20080801</v>
       </c>
@@ -943,7 +947,7 @@
         <v>3.4429390909090909</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>20080901</v>
       </c>
@@ -951,7 +955,7 @@
         <v>3.9099718181818179</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>20081001</v>
       </c>
@@ -959,7 +963,7 @@
         <v>7.9228645454545497</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>20081101</v>
       </c>
@@ -967,7 +971,7 @@
         <v>9.0108800000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>20081201</v>
       </c>
@@ -975,7 +979,7 @@
         <v>8.7614527272727294</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>20090101</v>
       </c>
@@ -983,7 +987,7 @@
         <v>7.76678181818182</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>20090201</v>
       </c>
@@ -991,7 +995,7 @@
         <v>8.217329090909093</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>20090301</v>
       </c>
@@ -999,7 +1003,7 @@
         <v>7.2733163636363631</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>20090401</v>
       </c>
@@ -1007,7 +1011,7 @@
         <v>6.3637327272727271</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>20090501</v>
       </c>
@@ -1015,7 +1019,7 @@
         <v>4.7920090000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>20090601</v>
       </c>
@@ -1023,7 +1027,7 @@
         <v>5.6001719999999988</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>20090701</v>
       </c>
@@ -1031,7 +1035,7 @@
         <v>3.3695270000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>20090801</v>
       </c>
@@ -1039,7 +1043,7 @@
         <v>3.3905279999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>20090901</v>
       </c>
@@ -1047,7 +1051,7 @@
         <v>4.6778500000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>20091001</v>
       </c>
@@ -1055,7 +1059,7 @@
         <v>4.7020360000000005</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>20091101</v>
       </c>
@@ -1063,7 +1067,7 @@
         <v>4.8596570000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>20091201</v>
       </c>
@@ -1071,7 +1075,7 @@
         <v>6.9918909999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>20100101</v>
       </c>
@@ -1079,7 +1083,7 @@
         <v>6.9279639999999985</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>20100201</v>
       </c>
@@ -1087,7 +1091,7 @@
         <v>6.9604509999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>20100301</v>
       </c>
@@ -1095,7 +1099,7 @@
         <v>5.4829789999999994</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>20100401</v>
       </c>
@@ -1103,7 +1107,7 @@
         <v>5.4628219999999992</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>20100501</v>
       </c>
@@ -1111,7 +1115,7 @@
         <v>6.7774754545454536</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>20100601</v>
       </c>
@@ -1119,7 +1123,7 @@
         <v>6.5689709090909085</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>20100701</v>
       </c>
@@ -1127,7 +1131,7 @@
         <v>5.7828399999999993</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>20100801</v>
       </c>
@@ -1135,7 +1139,7 @@
         <v>5.9885236363636363</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>20100901</v>
       </c>
@@ -1143,7 +1147,7 @@
         <v>5.6038100000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>20101001</v>
       </c>
@@ -1151,7 +1155,7 @@
         <v>4.3775000000000004</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>20101101</v>
       </c>
@@ -1159,7 +1163,7 @@
         <v>5.1514881818181815</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>20101201</v>
       </c>
@@ -1167,7 +1171,7 @@
         <v>4.6909381818181828</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>20110101</v>
       </c>
@@ -1175,7 +1179,7 @@
         <v>4.910290909090909</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>20110201</v>
       </c>
@@ -1183,7 +1187,7 @@
         <v>5.9456318181818197</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>20110301</v>
       </c>
@@ -1191,7 +1195,7 @@
         <v>4.3892180000000005</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>20110401</v>
       </c>
@@ -1199,7 +1203,7 @@
         <v>4.4695689999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>20110501</v>
       </c>
@@ -1207,7 +1211,7 @@
         <v>4.3234669999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>20110601</v>
       </c>
@@ -1215,7 +1219,7 @@
         <v>4.6566810000000007</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>20110701</v>
       </c>
@@ -1223,7 +1227,7 @@
         <v>4.5625090000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>20110801</v>
       </c>
@@ -1231,7 +1235,7 @@
         <v>4.9146780000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>20110901</v>
       </c>
@@ -1239,7 +1243,7 @@
         <v>5.2340429999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>20111001</v>
       </c>
@@ -1247,7 +1251,7 @@
         <v>5.7906649999999997</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>20111101</v>
       </c>
@@ -1255,7 +1259,7 @@
         <v>5.7111359999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>20111201</v>
       </c>
@@ -1263,7 +1267,7 @@
         <v>5.0656109999999996</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>20120101</v>
       </c>
@@ -1271,7 +1275,7 @@
         <v>5.5727659999999997</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>20120201</v>
       </c>
@@ -1279,7 +1283,7 @@
         <v>4.2584469999999994</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>20120301</v>
       </c>
@@ -1287,7 +1291,7 @@
         <v>4.6935849999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>20120401</v>
       </c>
@@ -1295,7 +1299,7 @@
         <v>5.3431219999999993</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>20120501</v>
       </c>
@@ -1303,7 +1307,7 @@
         <v>7.3489319999999996</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>20120601</v>
       </c>
@@ -1311,7 +1315,7 @@
         <v>8.4751770000000004</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>20120701</v>
       </c>
@@ -1319,7 +1323,7 @@
         <v>8.6880259999999989</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="7">
         <v>20120801</v>
       </c>
@@ -1327,7 +1331,7 @@
         <v>8.091463000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>20120901</v>
       </c>
@@ -1335,7 +1339,7 @@
         <v>6.4411249999999995</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>20121001</v>
       </c>
@@ -1343,7 +1347,7 @@
         <v>6.3738209999999995</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>20121101</v>
       </c>
@@ -1351,7 +1355,7 @@
         <v>7.4677050000000005</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>20121201</v>
       </c>
@@ -1359,7 +1363,7 @@
         <v>6.774521</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>20130101</v>
       </c>
@@ -1367,7 +1371,7 @@
         <v>5.5267179999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>20130201</v>
       </c>
@@ -1375,7 +1379,7 @@
         <v>5.969803999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>20130301</v>
       </c>
@@ -1383,7 +1387,7 @@
         <v>6.6638830000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>20130401</v>
       </c>
@@ -1391,7 +1395,7 @@
         <v>6.3027239999999995</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>20130501</v>
       </c>
@@ -1399,7 +1403,7 @@
         <v>5.8052039999999989</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>20130601</v>
       </c>
@@ -1407,7 +1411,7 @@
         <v>6.2499840000000004</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>20130701</v>
       </c>
@@ -1415,7 +1419,7 @@
         <v>5.518859</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>20130801</v>
       </c>
@@ -1423,7 +1427,7 @@
         <v>5.9619160000000004</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>20130901</v>
       </c>
@@ -1431,7 +1435,7 @@
         <v>5.8500420000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>20131001</v>
       </c>
@@ -1439,7 +1443,7 @@
         <v>6.5792370000000009</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>20131101</v>
       </c>
@@ -1447,7 +1451,7 @@
         <v>6.7497689999999988</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>20131201</v>
       </c>
@@ -1455,7 +1459,7 @@
         <v>6.4347799999999991</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>20140101</v>
       </c>
@@ -1463,7 +1467,7 @@
         <v>6.1562330000000003</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>20140201</v>
       </c>
@@ -1471,7 +1475,7 @@
         <v>6.3745510000000003</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>20140301</v>
       </c>
@@ -1479,7 +1483,7 @@
         <v>6.6245329999999996</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>20140401</v>
       </c>
@@ -1487,7 +1491,7 @@
         <v>6.4065510000000003</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>20140501</v>
       </c>
@@ -1495,7 +1499,7 @@
         <v>6.5495350000000006</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>20140601</v>
       </c>
@@ -1503,7 +1507,7 @@
         <v>6.4202190000000003</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>20140701</v>
       </c>
@@ -1511,7 +1515,7 @@
         <v>5.5255039999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>20140801</v>
       </c>
@@ -1519,7 +1523,7 @@
         <v>6.138363706759832</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>20140901</v>
       </c>
@@ -1527,7 +1531,7 @@
         <v>5.1849719017555209</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>20141001</v>
       </c>
@@ -1535,7 +1539,7 @@
         <v>5.2075469129921874</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>20141101</v>
       </c>
@@ -1543,7 +1547,7 @@
         <v>5.1650453402154941</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <v>20141201</v>
       </c>
@@ -1551,7 +1555,7 @@
         <v>4.5089260579514994</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <v>20150101</v>
       </c>
@@ -1559,7 +1563,7 @@
         <v>4.6664813147274256</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <v>20150201</v>
       </c>
@@ -1567,7 +1571,7 @@
         <v>4.8006983498818894</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <v>20150301</v>
       </c>
@@ -1575,7 +1579,7 @@
         <v>4.4014903236339711</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <v>20150401</v>
       </c>
@@ -1583,7 +1587,7 @@
         <v>4.4973830085199591</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
         <v>20150501</v>
       </c>
@@ -1591,7 +1595,7 @@
         <v>4.3851860183890619</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <v>20150601</v>
       </c>
@@ -1599,7 +1603,7 @@
         <v>4.5386485188702608</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
         <v>20150701</v>
       </c>
@@ -1607,7 +1611,7 @@
         <v>4.2504780727478497</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <v>20150801</v>
       </c>
@@ -1615,7 +1619,7 @@
         <v>2.7534188494357181</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <v>20150901</v>
       </c>
@@ -1623,7 +1627,7 @@
         <v>3.8710248521419661</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
         <v>20151001</v>
       </c>
@@ -1631,7 +1635,7 @@
         <v>3.6138280619052638</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
         <v>20151101</v>
       </c>
@@ -1639,7 +1643,7 @@
         <v>5.2303632235513593</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <v>20151201</v>
       </c>
@@ -1647,7 +1651,7 @@
         <v>6.9026843378526763</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="7">
         <v>20160101</v>
       </c>
@@ -1655,7 +1659,7 @@
         <v>7.9661037397529872</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
         <v>20160201</v>
       </c>
@@ -1663,95 +1667,95 @@
         <v>8.1529995203522674</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="7"/>
       <c r="B152" s="4"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153" s="3"/>
       <c r="B153" s="4"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154" s="5"/>
       <c r="B154" s="6"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155" s="3"/>
       <c r="B155" s="4"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156" s="3"/>
       <c r="B156" s="4"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157" s="3"/>
       <c r="B157" s="4"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158" s="3"/>
       <c r="B158" s="4"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159" s="5"/>
       <c r="B159" s="6"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160" s="3"/>
       <c r="B160" s="4"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161" s="3"/>
       <c r="B161" s="4"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163" s="3"/>
       <c r="B163" s="4"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164" s="5"/>
       <c r="B164" s="6"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165" s="3"/>
       <c r="B165" s="4"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166" s="3"/>
       <c r="B166" s="4"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167" s="3"/>
       <c r="B167" s="4"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168" s="3"/>
       <c r="B168" s="4"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A169" s="5"/>
       <c r="B169" s="6"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A170" s="3"/>
       <c r="B170" s="4"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A171" s="3"/>
       <c r="B171" s="4"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A172" s="3"/>
       <c r="B172" s="4"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A173" s="3"/>
       <c r="B173" s="4"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A174" s="5"/>
       <c r="B174" s="6"/>
     </row>

--- a/input/dv.xlsx
+++ b/input/dv.xlsx
@@ -531,13 +531,17 @@
       <c r="A9" s="7">
         <v>20040401</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="9">
+        <v>5.374963949521506</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>20040501</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="9">
+        <v>5.4188442589139143</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
